--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/socaomsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF826C-FA2C-47D3-9AFA-A43FE034F7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E447F9D-C2CB-2C4C-B299-B97D9F975339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>ISIC 97T98</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -267,6 +255,33 @@
   </si>
   <si>
     <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
   </si>
 </sst>
 </file>
@@ -336,7 +351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -350,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -778,19 +794,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C1" s="9">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -798,34 +817,34 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -833,59 +852,59 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -903,34 +922,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>57</v>
@@ -948,9 +967,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -968,9 +987,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>46</v>
@@ -988,9 +1007,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -1008,9 +1027,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <f>14+26</f>
@@ -1030,32 +1049,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="H32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <f>B26/SUM(B$26:B$30)</f>
@@ -1082,9 +1101,9 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" ref="B34:F37" si="1">B27/SUM(B$26:B$30)</f>
@@ -1111,9 +1130,9 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="1"/>
@@ -1140,9 +1159,9 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="1"/>
@@ -1169,9 +1188,9 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="1"/>
@@ -1198,195 +1217,195 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B87">
         <f>6.03-3.19</f>
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B88">
         <f>2.89-1.63</f>
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <f>8.92-4.82</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B92">
         <f>19.3-11.6</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B93">
         <f>13.8-11</f>
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B97">
         <f>B87/SUM(B$87:B$89)</f>
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B98">
         <f>B88/SUM(B$87:B$89)</f>
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <f>B89/SUM(B$87:B$89)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B101">
         <f>B91/SUM(B$91:B$93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B102">
         <f t="shared" ref="B102:B103" si="3">B92/SUM(B$91:B$93)</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
       </c>
       <c r="B107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B110">
         <f>A$106/SUM($A$106:$A$107)*B101+A$107/SUM($A$106:$A$107)*B97</f>
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <f t="shared" ref="B111:B112" si="4">A$106/SUM($A$106:$A$107)*B102+A$107/SUM($A$106:$A$107)*B98</f>
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B112">
         <f t="shared" si="4"/>
@@ -1405,7 +1424,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1417,135 +1436,153 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="38" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="10.5" customWidth="1"/>
+    <col min="29" max="43" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1599,38 +1636,38 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0.5</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0.2</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1641,21 +1678,36 @@
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>0.3</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/socaomsbric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/socaomsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E447F9D-C2CB-2C4C-B299-B97D9F975339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A73FB-F2BA-DF4D-9DE5-7D00F7E19B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
